--- a/biology/Botanique/Osteomeles/Osteomeles.xlsx
+++ b/biology/Botanique/Osteomeles/Osteomeles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osteomeles est un genre de plantes à fleurs de la famille des Rosacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre compte des espèces d'arbustes, au feuillage caduc ou pérenne.
 Les feuilles sont imparipennées, aux folioles opposés, sessiles ou au pétiole court.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est originaire de plusieurs régions bordant le pacifique, principalement d'Asie.
 </t>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit de toutes les espèces est comestible.
 Une utilisation ornementale de quelques espèces se développe pour la floraison et les fruits.
@@ -609,7 +627,9 @@
           <t>Liste des espèces[1]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Osteomeles anthyllidifolia (Sm.) Lindl. (1821) - Japon, Chine (Taïwan), Polynésie (synonymes : Pyrus anthyllidifolia Sm., Osteomeles anthyllifolia Siebold &amp; Zucc.)
 Osteomeles anthyllidifolia var. subrotunda (K. Koch) Masam. (synonyme : Osteomeles subrotunda K. Koch)
